--- a/240917 experiment testing.xlsx
+++ b/240917 experiment testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4DD66B-E9E8-4D04-B636-88440B0B3CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C589C-A4B2-41B2-B1D6-E02973979844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <t>3x rinse with solvent</t>
   </si>
   <si>
-    <t>Time point (min)</t>
+    <t>Time (min)</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:N295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
